--- a/report/audit-SEO deuxieme version.xlsx
+++ b/report/audit-SEO deuxieme version.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -43,19 +43,58 @@
     <t xml:space="preserve">(SEO ou accessiblité ?)</t>
   </si>
   <si>
+    <t xml:space="preserve">Accessibilité et SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;html lang=”Default”&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les moteurs de recherche n’ont pas d’indication sur la langue pour pouvoir localiser leurs résultats (indexer les pages sur google.fr dans notre cas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spécifier la langue utilisée dans notre document  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;html lang=”fr”&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problèmes d’indexation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site ne possède pas de balise meta robot ou de fichier robot.txt, rendant plus difficile l’indexation et l’exploration du site par les moteurs de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google doit pouvoir facilement indexer et crawler vos pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;meta robot =”index,follow” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise meta title sous-utilisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site ne possède pas de titre . Seulement ‘.’</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La balise &lt;title&gt; doit contenir moins de 65 caractères et si possible contenir des mots-clés pertinents tout en évitant la suroptimisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta name="title" content="La Chouette Agence - Webdesign à Lyon - Création de sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization des mots-clés</t>
+  </si>
+  <si>
     <t xml:space="preserve">seo</t>
   </si>
   <si>
-    <t xml:space="preserve">SEO on page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robots.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version principale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title 70 char max contain relevant keywords</t>
+    <t xml:space="preserve">Balise meta description sous-utilisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La balise description est votre vitrine sur les moteurs de recherche, i.e ce qui va apparaître sur la page de recherche en description. Ici elle est vide , ce qui est très mauvais au niveau SOE</t>
   </si>
   <si>
     <t xml:space="preserve">pas de contenu dupliqué</t>
@@ -173,6 +212,9 @@
   </si>
   <si>
     <t xml:space="preserve">trustpilot, yelp , …. réseaux sociaux repondre aux review positive gérez les negatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO on page</t>
   </si>
   <si>
     <t xml:space="preserve">human readable url containing relevant keywords</t>
@@ -365,7 +407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -411,6 +453,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -495,64 +553,68 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,11 +627,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -649,10 +711,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1005"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,7 +723,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="98.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="140.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="60.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="90.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="12.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="13.55"/>
@@ -711,488 +773,519 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" s="7" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="7" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="7"/>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7"/>
+      <c r="B18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="7"/>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="7"/>
+      <c r="B20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
-        <v>45</v>
+      <c r="B37" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" s="14" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" s="14" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" s="14" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" s="14" customFormat="true" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C50" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C62" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C67" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C68" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2104,9 +2197,11 @@
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E79" r:id="rId1" display="https://webapps.stackexchange.com/questions/119286/caching-assets-in-website-served-from-github-pages"/>
+    <hyperlink ref="E80" r:id="rId1" display="https://webapps.stackexchange.com/questions/119286/caching-assets-in-website-served-from-github-pages"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/audit-SEO deuxieme version.xlsx
+++ b/report/audit-SEO deuxieme version.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Google doit pouvoir facilement indexer et crawler vos pages</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;meta robot =”index,follow” </t>
+    <t xml:space="preserve">&lt;meta robot =”index,follow” &gt; + ajouter un plan du site (sitemap.xml)</t>
   </si>
   <si>
     <t xml:space="preserve">Balise meta title sous-utilisée</t>
@@ -97,25 +97,55 @@
     <t xml:space="preserve">La balise description est votre vitrine sur les moteurs de recherche, i.e ce qui va apparaître sur la page de recherche en description. Ici elle est vide , ce qui est très mauvais au niveau SOE</t>
   </si>
   <si>
-    <t xml:space="preserve">pas de contenu dupliqué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pb d indexation/ crawling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;meta name="robots" content="index,follow" /&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">architecture site web “flat”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pas indiquent aux moteurs de quoi traite la page. + sont affichées dans les resultats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doivent contenir le mot-clé mais aussi donner envie de cliquer (CTR)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Description de 370 caractères idéalement. Doit donner envie au visiteur de cliquer pour visiter le site. Contient un maximum de mots-clés </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">cohérents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">avec le site, sans aller jusqu’au WORD STUFFING tres mal vu; si possible avec une faible competition et fort volume de recherche. La cohérence est la clé</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">La Chouette Agence UX design, votre entreprise de webdesign sur Lyon. Création de site Internet sur Lyon. Pour un design ergonomique, présentant une forte identité graphique et responsive en toute circonstance, contactez notre studio de création graphique et laissez vous guider par notre équipe de webdesigners adaptés aux normes et tendance du design en 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abus de la balise meta keywords </t>
+  </si>
+  <si>
+    <t xml:space="preserve">obsolete. Ici combiné à du word stuffing s’apparente a du black hat SEO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class= keyword  mots clés non optimisé et qui ne s’affichent pas==&gt; word stuffing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meme problème en pire ==&gt; prototype du black hat SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tous les textes doivent avoir une taille et une couleur lisibles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer intégralement toutes les itérations de class=”keyword” c’est-à-dire le texte qui ne s’affiche pas</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;Problemes importants</t>
@@ -124,10 +154,19 @@
     <t xml:space="preserve">broken link</t>
   </si>
   <si>
-    <t xml:space="preserve">written like a relative path yet give a disfonctional “absolute” url. Dead link anyway even after correction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adresses des pages pas opti</t>
+    <t xml:space="preserve">Nous avons sur le site plusieurs liens morts, donnant lieu à des erreurs 404, ce qui est très mauvais en termes de SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supprimer les liens morts et en rajouter d’autre mis à jour. Etablir des partenariats afin d’avoir des sites qui pointent vers le votre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer tous les liens vides!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adresses des pages non lisible (“human readable”)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doit être si possible comprehensible et avec moins de 144 caractères</t>
   </si>
   <si>
     <r>
@@ -151,40 +190,67 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Nos textes doivent avoir une taille de 12px mini pour être lisibles</t>
+  </si>
+  <si>
     <t xml:space="preserve">empty analytics</t>
   </si>
   <si>
-    <t xml:space="preserve">BLACK HAT SEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Font-size:1x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">responsive :image not displaying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">media icon display row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">footer link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyword in img name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta robot: inexistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i”index, follow” pour que les pages soient indexées et que le site soit parcouru dans son ensemble</t>
+    <t xml:space="preserve">Le site n’a pas ni google analytics ni google search console, tous deux des outils d’analyse trés puissants. Vous pouvez avec ces outils tous savoir de la démographie,localisation etc.. de vos visiteurs ainsi que les positions de vos mots-clés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementer analytics + search console</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO et Accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images contenant du texte pertinent tronquées en responsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les mots-clés contenu dans les images ne sont pas repertoriés par google. De plus ces images sont tronquées en responsive (images concernées: title.png et citation.pmg. De plus les personnes utilisant des screen readers nónt pas acces au texte contenu dans ces images non plus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mettre le texte contenu dans les images en toutes lettres, si possible contenant des mots-clẽs pertinents toujours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre la première image dans une balise h2 et la deuxième dans un blockquote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icones des réseaux sociaux non responsive et trop petites</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les icones sont à la vertical et prennent de l’espace pour rien : Layout “acceptable” (et encore) pour un pc de bureau mais pas en mobile. De plus lighthouse reporte une taille minimum necessaire pour l’accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenir un layout consistent et toujours adapté aux différents matériels (mobile, tablet..). Tout bug dans le domaine responsive induit une lourde pénalisation de la part des différents moteurs de recherche. Garder une taille minimum pour les icones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre les icones à l’horizontale et avec une taille de 40px minimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images possèdent des attributs alt non pertinents uniquement destiné à essayer de “tromper” les moteurs. On est toujours sur du Black Hat SEO et google s’en rend compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images doivent impérativement posséder un texte alternatif pour afficher en lieu et place de l’image si celle-ci ne peut être affichée ou sur les screen reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si cela respecte la cohérence du site (encore et toujours), c’est-à-dire en évitant à tout prix les techniques de “word stuffing” précedemment employées, on peut essayer de placer des mots-clés, synonymes ou de contextualisation pour aider le moteur à determiner de quoi parle notre site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer tous les noms alternatifs uniquement orienté “faussement” SEO et les remplacer par des vrais noms pertinents dans notre contexte. Par exemple usr le bloc 0 on remplace sur le logo alt=”atlanta web design logo” par alt”logo la chouette agence webdesign lyon”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contenu est structuré avec des titres de differents niveaux</t>
   </si>
   <si>
     <t xml:space="preserve">sd</t>
   </si>
   <si>
-    <t xml:space="preserve">page2 html link out of reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">position du lien déborde + pas de barre de defilement horizontale</t>
+    <t xml:space="preserve">page2 html lien layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le lien vers la page contact.html est tronqué et partiellement en dehors de l’écran</t>
   </si>
   <si>
     <t xml:space="preserve">avoir tous les élément à l’intérieur du viewport (I.e ecran/fenetre) et/ou barres de défilement pour pouvoir accéder au contenu en dehors du viewport</t>
@@ -193,19 +259,25 @@
     <t xml:space="preserve">définir une largeur maximale pour notre container et les espacer. Enlever les puces des listes</t>
   </si>
   <si>
-    <t xml:space="preserve">empty nav link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://academy.visiplus.com/blog/web-design/webdesign-10-tendances-en-hausse-en-2021-2021-07-05</t>
+    <t xml:space="preserve">li nav vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lien vide (possible reliquat d’une ancienne page?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer </t>
   </si>
   <si>
     <t xml:space="preserve">rediger des contenus performants</t>
   </si>
   <si>
-    <t xml:space="preserve">contenus informationnels</t>
+    <t xml:space="preserve">rich snippets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Permet l’ajout d’un tas de données utiles et enrichies sur les pages de résultats telles que l’adresse physique, téléphone, reviews yelp ou trustpilot, fiches produits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter les informations pertinentes telle que le nom, image, addresse physique et horaires d’ouverture.</t>
   </si>
   <si>
     <t xml:space="preserve">augmenter l’autorité</t>
@@ -215,24 +287,6 @@
   </si>
   <si>
     <t xml:space="preserve">SEO on page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">human readable url containing relevant keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balise</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> meta / description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indiquent aux moteurs de recherche de quoi traite la page. Sont aussi affichées dans les résultats. Doivent non seulement contenir le mot-clé visé, mais aussi donner envie au visiteur de cliquer pour lire votre page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robots </t>
-  </si>
-  <si>
-    <t xml:space="preserve">verifier que le contenu est bien “index, follow” pour s’assurer une bonne indexation des moteurs de recherche</t>
   </si>
   <si>
     <t xml:space="preserve">Titres h1</t>
@@ -344,6 +398,9 @@
   </si>
   <si>
     <t xml:space="preserve">relevant text placed in img (=&gt;not indexed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyse KPI</t>
   </si>
   <si>
     <t xml:space="preserve">OPTIMIZATION / PERFORMANCE ( cf lighthouse pre-optimization report)</t>
@@ -471,6 +528,13 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -480,13 +544,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00A933"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -598,16 +655,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -694,7 +751,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -713,17 +770,17 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="98.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="140.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="90.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="156.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="103.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="12.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="13.55"/>
@@ -833,7 +890,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -843,449 +900,448 @@
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="10" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="12" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="15" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
+        <v>64</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>50</v>
+      <c r="B28" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>83</v>
+      </c>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="17"/>
-    </row>
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C51" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C53" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>91</v>
+      <c r="B63" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C68" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
+      <c r="B68" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2183,25 +2239,25 @@
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E80" r:id="rId1" display="https://webapps.stackexchange.com/questions/119286/caching-assets-in-website-served-from-github-pages"/>
+    <hyperlink ref="E65" r:id="rId1" display="https://webapps.stackexchange.com/questions/119286/caching-assets-in-website-served-from-github-pages"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/audit-SEO deuxieme version.xlsx
+++ b/report/audit-SEO deuxieme version.xlsx
@@ -208,7 +208,7 @@
     <t xml:space="preserve">images contenant du texte pertinent tronquées en responsive</t>
   </si>
   <si>
-    <t xml:space="preserve">Les mots-clés contenu dans les images ne sont pas repertoriés par google. De plus ces images sont tronquées en responsive (images concernées: title.png et citation.pmg. De plus les personnes utilisant des screen readers nónt pas acces au texte contenu dans ces images non plus.</t>
+    <t xml:space="preserve">Les mots-clés contenu dans les images ne sont pas repertoriés par google. De plus ces images sont tronquées en responsive (images concernées: title.png et citation.pmg. Enfin les personnes utilisant des screen readers n’ont pas acces au texte contenu dans ces images non plus.</t>
   </si>
   <si>
     <t xml:space="preserve"> Mettre le texte contenu dans les images en toutes lettres, si possible contenant des mots-clẽs pertinents toujours</t>
@@ -301,31 +301,28 @@
     <t xml:space="preserve">Notre contenu doit d’être segmenté en plusieurs parties par des h2 et qu’ils contiennent soit le mot-clé, soit un synonyme proche</t>
   </si>
   <si>
+    <t xml:space="preserve">SEO et Optimisation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Images</t>
   </si>
   <si>
     <t xml:space="preserve">Ne doivent pas être trop lourdes ni downscaled. Utiliser si besoin plusieurs résolutions. Vérifier les balises alt, contenant si possibles le mot-clé dans la mesure du possible.</t>
   </si>
   <si>
+    <t xml:space="preserve">Compresser les images, utiliser des formats modernes (bien plus performants en termes de compression), utiliser plusieurs résolutions si besoin. On peut aussi preload (voir charger les images à la volée) certaines image pour améliorer la performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cohérence et longueur de contenu</t>
   </si>
   <si>
     <t xml:space="preserve">Dans la mesure du possible et tout en gardant notre cohérence:  Viser 400 mots pour les pages (si cohérent) et 600 mots pour vos articles</t>
   </si>
   <si>
-    <t xml:space="preserve">Examinez positions de vots mots-clés (Google Analytics)</t>
+    <t xml:space="preserve">Examinez positions de vots mots-clés (Google search console / keyword planner)</t>
   </si>
   <si>
     <t xml:space="preserve">Forte concurrence et / ou faible volume de recherche sur les mots-clés ciblés. CF keyword spreadsheet.  Vérifier que l’évolution du trafic va dans le bon sens et est au minimum stable (resultats apparents apres 10 jours)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifier qualité des liens existans </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cf broken links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimiser le contenu des pages</t>
   </si>
   <si>
     <t xml:space="preserve">Ajouter des données structurées (rich content)</t>
@@ -382,39 +379,42 @@
     <t xml:space="preserve">Un lien est de bonne qualité s’il: 1- Provient d’un site connu ou de qualité   2- Se trouve dans un contenu cohérent par rapport à votre domaine métier     3 – Amène un vrai trafic</t>
   </si>
   <si>
-    <t xml:space="preserve">Google Analytics / Google Search Console</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permet de savoir tout sur vos visiteurs et les informations détaillées sur les mots clés utilisés et leur position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparaison des canaux d’acquisition. Créer des annotation sur Analytics à chque modificcation importance ou ajout de contenu. Permet quelques mois plus tard de voir l’impact des modifications sur votre trafic</t>
-  </si>
-  <si>
     <t xml:space="preserve">autres données importantes </t>
   </si>
   <si>
     <t xml:space="preserve"> taux de visiteurs récurrents, taux de conversion, taux de rebond, configuration matérielle utilisée</t>
   </si>
   <si>
-    <t xml:space="preserve">relevant text placed in img (=&gt;not indexed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyse KPI</t>
-  </si>
-  <si>
     <t xml:space="preserve">OPTIMIZATION / PERFORMANCE ( cf lighthouse pre-optimization report)</t>
   </si>
   <si>
+    <t xml:space="preserve">images ont une taille définie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si les image n’ont pas de taille définie au chargement le browser doit recalculer le layout  lorsqu’il charge l’image</t>
+  </si>
+  <si>
     <t xml:space="preserve">compression des images</t>
   </si>
   <si>
-    <t xml:space="preserve">purge CSS</t>
+    <t xml:space="preserve">reduce unused CSS</t>
   </si>
   <si>
     <t xml:space="preserve">Defer / async script cf screen assets, critical files..</t>
   </si>
   <si>
+    <t xml:space="preserve">ensure fonts remain visible during webfont load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On doit s’assurer que le texte est visible des le debut du chargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On ajoute un parametre dans l’implementation de la police qui assure l’affichage du texte des que possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font-display: swap</t>
+  </si>
+  <si>
     <t xml:space="preserve">balise canonical</t>
   </si>
   <si>
@@ -454,7 +454,7 @@
     <t xml:space="preserve">Contact ==&gt; mettre des h2?</t>
   </si>
   <si>
-    <t xml:space="preserve">contrast</t>
+    <t xml:space="preserve">contrast ratio</t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1120,213 +1120,210 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="s">
-        <v>82</v>
+      <c r="B34" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="18" t="s">
         <v>95</v>
       </c>
+      <c r="D45" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="2" t="s">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="C53" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
+      <c r="D53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2234,11 +2231,11 @@
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2257,7 +2254,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E65" r:id="rId1" display="https://webapps.stackexchange.com/questions/119286/caching-assets-in-website-served-from-github-pages"/>
+    <hyperlink ref="E60" r:id="rId1" display="https://webapps.stackexchange.com/questions/119286/caching-assets-in-website-served-from-github-pages"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/report/audit-SEO deuxieme version.xlsx
+++ b/report/audit-SEO deuxieme version.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -364,12 +364,6 @@
     <t xml:space="preserve">Plus on a du contenu de qualité plus plus on a de pages indexées par Google et donc de portes d’entrées potentielles . Actualités, expertises, fonctionnement / démonstration de produit newsfeed et/ou de réseaux sociaux, blog</t>
   </si>
   <si>
-    <t xml:space="preserve">Créer une architecture cohérente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">article et / ou page d’une même thème doivent être reliées entre elles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Augmenter l’autorité de votre site (backlink)</t>
   </si>
   <si>
@@ -394,9 +388,6 @@
     <t xml:space="preserve">Si les image n’ont pas de taille définie au chargement le browser doit recalculer le layout  lorsqu’il charge l’image</t>
   </si>
   <si>
-    <t xml:space="preserve">compression des images</t>
-  </si>
-  <si>
     <t xml:space="preserve">reduce unused CSS</t>
   </si>
   <si>
@@ -406,7 +397,7 @@
     <t xml:space="preserve">ensure fonts remain visible during webfont load</t>
   </si>
   <si>
-    <t xml:space="preserve">On doit s’assurer que le texte est visible des le debut du chargement</t>
+    <t xml:space="preserve">On doit s’assurer que le texte est visible dès le debut du chargement</t>
   </si>
   <si>
     <t xml:space="preserve">On ajoute un parametre dans l’implementation de la police qui assure l’affichage du texte des que possible</t>
@@ -415,33 +406,27 @@
     <t xml:space="preserve">Font-display: swap</t>
   </si>
   <si>
-    <t xml:space="preserve">balise canonical</t>
+    <t xml:space="preserve">preload critical assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les éléments criticaux pour l'affichage de la page ne sont pas préchargés, et doivent donc être</t>
   </si>
   <si>
     <t xml:space="preserve">parametrage cache</t>
   </si>
   <si>
+    <t xml:space="preserve">Une gestion cohérente du cache évite d'avoir à retélécharger tout à chaque fois</t>
+  </si>
+  <si>
     <t xml:space="preserve">CMS ou builder rapide</t>
   </si>
   <si>
-    <t xml:space="preserve">plugin de cache (not avalable for githu pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://webapps.stackexchange.com/questions/119286/caching-assets-in-website-served-from-github-pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gzip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.htaccess</t>
+    <t xml:space="preserve">Une intégration avec webpack permettrait de charger dynamiquement les modules necessaires à la volée</t>
   </si>
   <si>
     <t xml:space="preserve">minify JS</t>
   </si>
   <si>
-    <t xml:space="preserve">html lang</t>
-  </si>
-  <si>
     <t xml:space="preserve">w3c validation</t>
   </si>
   <si>
@@ -451,10 +436,25 @@
     <t xml:space="preserve">Vulnerabilités …</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact ==&gt; mettre des h2?</t>
-  </si>
-  <si>
     <t xml:space="preserve">contrast ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'arrière plan et l'avant plan de certains élement ont des coouleurs trop semblables, ce qui nuit a la visibilité et donc à l'accessibilité des personnes mal voyantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre des couleurs suffisament différenciées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas de controles aria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donnent des informations complémentaires aux screen readers et autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tous les controles et champs important, si leur sémantique ou role n'est pas immédiatement perçu par le navigateur, doivent avoir un attribut aria pour qu'il soit identifié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icones des réseaux sociaux (aria-label) et le champs des formulaires (label) sont maintenant accessibles </t>
   </si>
 </sst>
 </file>
@@ -464,11 +464,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -518,16 +519,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -544,13 +535,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -610,7 +594,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -647,19 +631,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,7 +647,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -684,11 +660,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="10" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -770,8 +742,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E67" activeCellId="0" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -779,7 +751,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="98.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="156.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="164.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="103.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="12.67"/>
@@ -862,7 +834,7 @@
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -876,7 +848,7 @@
       <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -884,11 +856,10 @@
       </c>
     </row>
     <row r="7" s="7" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -903,7 +874,7 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -963,7 +934,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1001,7 +972,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1021,7 +992,7 @@
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1051,7 +1022,7 @@
       <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1059,7 +1030,6 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1099,7 +1069,7 @@
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1137,7 +1107,7 @@
       <c r="B32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1149,7 +1119,7 @@
       <c r="C34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1171,102 +1141,101 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="s">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="s">
+      <c r="D42" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="2" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D44" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C45" s="2" t="s">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="1" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="s">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
+      <c r="C55" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1275,50 +1244,48 @@
       <c r="B62" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="s">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>115</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2223,14 +2190,14 @@
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2253,9 +2220,6 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E60" r:id="rId1" display="https://webapps.stackexchange.com/questions/119286/caching-assets-in-website-served-from-github-pages"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/report/audit-SEO deuxieme version.xlsx
+++ b/report/audit-SEO deuxieme version.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -101,8 +101,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Description de 370 caractères idéalement. Doit donner envie au visiteur de cliquer pour visiter le site. Contient un maximum de mots-clés </t>
     </r>
@@ -111,8 +110,7 @@
         <b val="true"/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">cohérents </t>
     </r>
@@ -120,8 +118,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">avec le site, sans aller jusqu’au WORD STUFFING tres mal vu; si possible avec une faible competition et fort volume de recherche. La cohérence est la clé</t>
     </r>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">Supprimer intégralement toutes les itérations de class=”keyword” c’est-à-dire le texte qui ne s’affiche pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;Problemes importants</t>
   </si>
   <si>
     <t xml:space="preserve">broken link</t>
@@ -174,8 +168,7 @@
         <sz val="12"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Document doesn't use</t>
     </r>
@@ -183,8 +176,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> legible font sizes</t>
     </r>
@@ -271,9 +263,6 @@
     <t xml:space="preserve">rediger des contenus performants</t>
   </si>
   <si>
-    <t xml:space="preserve">rich snippets</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Permet l’ajout d’un tas de données utiles et enrichies sur les pages de résultats telles que l’adresse physique, téléphone, reviews yelp ou trustpilot, fiches produits</t>
   </si>
   <si>
@@ -325,103 +314,76 @@
     <t xml:space="preserve">Forte concurrence et / ou faible volume de recherche sur les mots-clés ciblés. CF keyword spreadsheet.  Vérifier que l’évolution du trafic va dans le bon sens et est au minimum stable (resultats apparents apres 10 jours)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajouter des données structurées (rich content)</t>
+    <t xml:space="preserve">Créer une machine à contenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus on a du contenu de qualité plus plus on a de pages indexées par Google et donc de portes d’entrées potentielles . Actualités, expertises, fonctionnement / démonstration de produit newsfeed et/ou de réseaux sociaux, blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmenter l’autorité de votre site (backlink)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dépend surtout de la qualité et du nombre de liens qui pointent vers votre site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un lien est de bonne qualité s’il: 1- Provient d’un site connu ou de qualité   2- Se trouve dans un contenu cohérent par rapport à votre domaine métier     3 – Amène un vrai trafic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autres données importantes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> taux de visiteurs récurrents, taux de conversion, taux de rebond, configuration matérielle utilisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images ont une taille définie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si les image n’ont pas de taille définie au chargement le browser doit recalculer le layout  lorsqu’il charge l’image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduce unused CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defer / async script cf screen assets, critical files..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensure fonts remain visible during webfont load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On doit s’assurer que le texte est visible dès le debut du chargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On ajoute un parametre dans l’implementation de la police qui assure l’affichage du texte des que possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font-display: swap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preload critical assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les éléments criticaux pour l'affichage de la page ne sont pas préchargés, et doivent donc être chargés quand le navigateur découvre qu'il en a besoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parametrage cache</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Permettent j’ajouter des résultats enrichis (cf screen ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">faire screen </t>
+      <t xml:space="preserve">Une gestion cohérente du cache évite d'avoir à tout </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">==&gt; attirent l’oeil diu visiteur</t>
+      <t xml:space="preserve">retélécharger  à chaque fois</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Créer une machine à contenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus on a du contenu de qualité plus plus on a de pages indexées par Google et donc de portes d’entrées potentielles . Actualités, expertises, fonctionnement / démonstration de produit newsfeed et/ou de réseaux sociaux, blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmenter l’autorité de votre site (backlink)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dépend surtout de la qualité et du nombre de liens qui pointent vers votre site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un lien est de bonne qualité s’il: 1- Provient d’un site connu ou de qualité   2- Se trouve dans un contenu cohérent par rapport à votre domaine métier     3 – Amène un vrai trafic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autres données importantes </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> taux de visiteurs récurrents, taux de conversion, taux de rebond, configuration matérielle utilisée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTIMIZATION / PERFORMANCE ( cf lighthouse pre-optimization report)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images ont une taille définie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si les image n’ont pas de taille définie au chargement le browser doit recalculer le layout  lorsqu’il charge l’image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduce unused CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defer / async script cf screen assets, critical files..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ensure fonts remain visible during webfont load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On doit s’assurer que le texte est visible dès le debut du chargement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On ajoute un parametre dans l’implementation de la police qui assure l’affichage du texte des que possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Font-display: swap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preload critical assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les éléments criticaux pour l'affichage de la page ne sont pas préchargés, et doivent donc être</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parametrage cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une gestion cohérente du cache évite d'avoir à retélécharger tout à chaque fois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMS ou builder rapide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une intégration avec webpack permettrait de charger dynamiquement les modules necessaires à la volée</t>
   </si>
   <si>
     <t xml:space="preserve">minify JS</t>
@@ -464,12 +426,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -490,54 +451,40 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -594,7 +541,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -631,11 +578,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -647,7 +598,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -660,7 +611,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="10" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -742,14 +693,14 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E67" activeCellId="0" sqref="E67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="98.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="164.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="103.65"/>
@@ -871,10 +822,10 @@
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -901,107 +852,103 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="11" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>38</v>
+      <c r="B13" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10" t="s">
-        <v>40</v>
+    <row r="14" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="2" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1014,66 +961,66 @@
       <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="1" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
         <v>74</v>
       </c>
@@ -1081,204 +1028,179 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="s">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="15"/>
-    </row>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
+      <c r="D40" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="2" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="C45" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="2" t="s">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="1" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="2" t="s">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="C50" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="s">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>105</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="D60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2183,38 +2105,6 @@
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/report/audit-SEO deuxieme version.xlsx
+++ b/report/audit-SEO deuxieme version.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Action recommandée</t>
   </si>
   <si>
-    <t xml:space="preserve">Référence</t>
+    <t xml:space="preserve">Référence (liens hypertexte)</t>
   </si>
   <si>
     <t xml:space="preserve">(SEO ou accessiblité ?)</t>
@@ -73,6 +73,12 @@
     <t xml:space="preserve">&lt;meta robot =”index,follow” &gt; + ajouter un plan du site (sitemap.xml)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://developers.google.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO et Accessibilité</t>
+  </si>
+  <si>
     <t xml:space="preserve">Balise meta title sous-utilisée</t>
   </si>
   <si>
@@ -85,10 +91,19 @@
     <t xml:space="preserve">meta name="title" content="La Chouette Agence - Webdesign à Lyon - Création de sites</t>
   </si>
   <si>
+    <t xml:space="preserve">https://developers.google.com/[..]/good-titles-snippets/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optimization des mots-clés</t>
   </si>
   <si>
-    <t xml:space="preserve">seo</t>
+    <t xml:space="preserve">Les mots-clés utilisés ne sont pas spécialement pertinents et mal utilisés (Abus de word stuffing notamment).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chercher avec des outils spécialisés tels que google keyword planner des nouveaux mots-clés. Toujours utiliser des mots-clés pertinents , cohérents avec votre site. Ecrire d'abord pour les visiteurs, ensuite pour Google. Essayer de dégager des opportunités: des mots-clés ayant en même temps un fort volume de recherche et une faible compétition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer les anciens mots-clés et les remplacer par des mots-clés plus à même de faire apparait le site en haut de SERP (Search Engine Results Pages)</t>
   </si>
   <si>
     <t xml:space="preserve">Balise meta description sous-utilisée</t>
@@ -102,6 +117,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Description de 370 caractères idéalement. Doit donner envie au visiteur de cliquer pour visiter le site. Contient un maximum de mots-clés </t>
     </r>
@@ -111,6 +127,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">cohérents </t>
     </r>
@@ -119,6 +136,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">avec le site, sans aller jusqu’au WORD STUFFING tres mal vu; si possible avec une faible competition et fort volume de recherche. La cohérence est la clé</t>
     </r>
@@ -127,12 +145,21 @@
     <t xml:space="preserve">La Chouette Agence UX design, votre entreprise de webdesign sur Lyon. Création de site Internet sur Lyon. Pour un design ergonomique, présentant une forte identité graphique et responsive en toute circonstance, contactez notre studio de création graphique et laissez vous guider par notre équipe de webdesigners adaptés aux normes et tendance du design en 2021</t>
   </si>
   <si>
+    <t xml:space="preserve">developers.google.com SEO starter guide</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abus de la balise meta keywords </t>
   </si>
   <si>
     <t xml:space="preserve">obsolete. Ici combiné à du word stuffing s’apparente a du black hat SEO </t>
   </si>
   <si>
+    <t xml:space="preserve">Suprrimer la balise keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/search/docs/advanced/guidelines/irrelevant-keywords</t>
+  </si>
+  <si>
     <t xml:space="preserve">class= keyword  mots clés non optimisé et qui ne s’affichent pas==&gt; word stuffing </t>
   </si>
   <si>
@@ -145,7 +172,10 @@
     <t xml:space="preserve">Supprimer intégralement toutes les itérations de class=”keyword” c’est-à-dire le texte qui ne s’affiche pas</t>
   </si>
   <si>
-    <t xml:space="preserve">broken link</t>
+    <t xml:space="preserve">https://developers.google.com/search/docs/advanced/guidelines/hidden-text-links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liens morts</t>
   </si>
   <si>
     <t xml:space="preserve">Nous avons sur le site plusieurs liens morts, donnant lieu à des erreurs 404, ce qui est très mauvais en termes de SEO</t>
@@ -161,6 +191,12 @@
   </si>
   <si>
     <t xml:space="preserve">doit être si possible comprehensible et avec moins de 144 caractères</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changer les urls et noms des photos. Leur donner un nom pertinent, par exemple contact.html ou agence-de-voyage.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com</t>
   </si>
   <si>
     <r>
@@ -169,6 +205,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Document doesn't use</t>
     </r>
@@ -177,12 +214,16 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> legible font sizes</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Nos textes doivent avoir une taille de 12px mini pour être lisibles</t>
+    <t xml:space="preserve">Les textes doivent avoir une taille de 12px mini pour être lisibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO et Performance</t>
   </si>
   <si>
     <t xml:space="preserve">empty analytics</t>
@@ -194,7 +235,7 @@
     <t xml:space="preserve">Implementer analytics + search console</t>
   </si>
   <si>
-    <t xml:space="preserve">SEO et Accessibilité</t>
+    <t xml:space="preserve">Analytics , dans la version actuelle du site hébergée sur github pages, fait baisser de 6 points le score de performance du site. J'ai laissé pour l'instant la balise inactive entre des commentaire en attendant un déploiement ultérieur.</t>
   </si>
   <si>
     <t xml:space="preserve">images contenant du texte pertinent tronquées en responsive</t>
@@ -236,9 +277,6 @@
     <t xml:space="preserve">Le contenu est structuré avec des titres de differents niveaux</t>
   </si>
   <si>
-    <t xml:space="preserve">sd</t>
-  </si>
-  <si>
     <t xml:space="preserve">page2 html lien layout</t>
   </si>
   <si>
@@ -254,7 +292,7 @@
     <t xml:space="preserve">li nav vide</t>
   </si>
   <si>
-    <t xml:space="preserve">lien vide (possible reliquat d’une ancienne page?)</t>
+    <t xml:space="preserve">balise  vide (possible reliquat d’une ancienne page?)</t>
   </si>
   <si>
     <t xml:space="preserve">Supprimer </t>
@@ -263,21 +301,15 @@
     <t xml:space="preserve">rediger des contenus performants</t>
   </si>
   <si>
+    <t xml:space="preserve">Il n'y à présentement aucun contenu enrichi. </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Permet l’ajout d’un tas de données utiles et enrichies sur les pages de résultats telles que l’adresse physique, téléphone, reviews yelp ou trustpilot, fiches produits</t>
   </si>
   <si>
     <t xml:space="preserve">Ajouter les informations pertinentes telle que le nom, image, addresse physique et horaires d’ouverture.</t>
   </si>
   <si>
-    <t xml:space="preserve">augmenter l’autorité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trustpilot, yelp , …. réseaux sociaux repondre aux review positive gérez les negatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO on page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Titres h1</t>
   </si>
   <si>
@@ -299,7 +331,13 @@
     <t xml:space="preserve">Ne doivent pas être trop lourdes ni downscaled. Utiliser si besoin plusieurs résolutions. Vérifier les balises alt, contenant si possibles le mot-clé dans la mesure du possible.</t>
   </si>
   <si>
-    <t xml:space="preserve">Compresser les images, utiliser des formats modernes (bien plus performants en termes de compression), utiliser plusieurs résolutions si besoin. On peut aussi preload (voir charger les images à la volée) certaines image pour améliorer la performance</t>
+    <t xml:space="preserve">Compresser les images, utiliser des formats modernes (bien plus performants en termes de compression), utiliser plusieurs résolutions si besoin. On peut aussi lazy-load les image, ce qui consiste à charger dynamiquement les images lorsqu'elles s'approchent du viewport. Les images utilisées doivent en outre avoir une taille définie pour éviter un recalcul subséquent du layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos images sont passées au format webp, compressées et disponibilisées sous différentes résolutions. Elles sont de plus "lazy-loaded" nativement pour les balises img ou grace à du Javascript pour les background en css. Le gain de performance est considérable (cf rapport d'optimisation).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">developer.google.com/search/docs/advanced/javascript/lazy-loading</t>
   </si>
   <si>
     <t xml:space="preserve">Cohérence et longueur de contenu</t>
@@ -314,37 +352,68 @@
     <t xml:space="preserve">Forte concurrence et / ou faible volume de recherche sur les mots-clés ciblés. CF keyword spreadsheet.  Vérifier que l’évolution du trafic va dans le bon sens et est au minimum stable (resultats apparents apres 10 jours)</t>
   </si>
   <si>
+    <t xml:space="preserve">Effectuer une recherche de mots-clés avec leur volume de recherche et concurrence associée. Examinez les positions des mots-clés utilisés et dégager des opportunités (i.e mots-clés possédant un fort volume de recherche et faible compétition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacer les mots-clés utilisés par d'autres plus pertinents et possédant une plus faible compétition.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Créer une machine à contenu</t>
   </si>
   <si>
     <t xml:space="preserve">Plus on a du contenu de qualité plus plus on a de pages indexées par Google et donc de portes d’entrées potentielles . Actualités, expertises, fonctionnement / démonstration de produit newsfeed et/ou de réseaux sociaux, blog</t>
   </si>
   <si>
+    <t xml:space="preserve">Ajouter régulièrement du nouveau contenu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Augmenter l’autorité de votre site (backlink)</t>
   </si>
   <si>
     <t xml:space="preserve">Dépend surtout de la qualité et du nombre de liens qui pointent vers votre site</t>
   </si>
   <si>
-    <t xml:space="preserve">Un lien est de bonne qualité s’il: 1- Provient d’un site connu ou de qualité   2- Se trouve dans un contenu cohérent par rapport à votre domaine métier     3 – Amène un vrai trafic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autres données importantes </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> taux de visiteurs récurrents, taux de conversion, taux de rebond, configuration matérielle utilisée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images ont une taille définie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si les image n’ont pas de taille définie au chargement le browser doit recalculer le layout  lorsqu’il charge l’image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduce unused CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defer / async script cf screen assets, critical files..</t>
+    <t xml:space="preserve">Un lien est de bonne qualité s’il: 1- Provient d’un site connu ou de qualité   2- Se trouve dans un contenu cohérent par rapport à votre domaine métier     3 – Amène un vrai trafic . </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Etablir si possibles des partenariats. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> Entre outre, trustpilot, yelp et autres réseaux sociaux peuvent amener du trafic de qualité vers votre site. Il faut cependant repondre aux review positive gérez les negatives et "soigner" son image sur les réseaux sociaux ou sites de reviews.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">supprimer les classes CSS inutilisées / Minifier les fichier css / Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certaines classes CSS implémentées ne sont pas utilisées et rajoutent du temps de chargement inutile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Èliminer le code inutile grâce à un package npm comme purgecss. On peut aussi minifier le code (éliminer tous les espaces et retours à la ligne inutiles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réduire les fichiers css et javascript à leur plus simple expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les différents scripts dans la balise head sont chargés séquentiellement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les scripts sont chargés séquentiellement et, étant placés dans la balise head, retardent le chargement de la structure de la page (DOM). Le navigateur doit charger l'intégralité des scripts avant de pouvoir commencer à charger le reste de la page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On utilise async ou defer pour éviter que le chargement de scripts ne bloque le chargement du reste du DOM</t>
   </si>
   <si>
     <t xml:space="preserve">ensure fonts remain visible during webfont load</t>
@@ -373,6 +442,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Une gestion cohérente du cache évite d'avoir à tout </t>
     </r>
@@ -381,30 +451,43 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">retélécharger  à chaque fois</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">minify JS</t>
-  </si>
-  <si>
     <t xml:space="preserve">w3c validation</t>
   </si>
   <si>
+    <t xml:space="preserve">Bonnes pratiques</t>
+  </si>
+  <si>
     <t xml:space="preserve">utiliser lib a jour</t>
   </si>
   <si>
     <t xml:space="preserve">Vulnerabilités …</t>
   </si>
   <si>
+    <t xml:space="preserve">utiliser des bibliothèques à jour exemptes de vulnérabilités et / ou erreurs</t>
+  </si>
+  <si>
     <t xml:space="preserve">contrast ratio</t>
   </si>
   <si>
     <t xml:space="preserve">L'arrière plan et l'avant plan de certains élement ont des coouleurs trop semblables, ce qui nuit a la visibilité et donc à l'accessibilité des personnes mal voyantes</t>
   </si>
   <si>
+    <t xml:space="preserve">Utiliser des couleurs suffisament différenciées entre l'arrière plan et l'avant pour permet d'avoir des textes plus lisibles même pour des personne possédant une vision déficiente.</t>
+  </si>
+  <si>
     <t xml:space="preserve">mettre des couleurs suffisament différenciées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.whoisaccessible.com/guidelines/wcag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité </t>
   </si>
   <si>
     <t xml:space="preserve">pas de controles aria</t>
@@ -426,11 +509,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -451,38 +535,57 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -541,44 +644,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -586,28 +677,36 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -691,509 +790,606 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z948"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="98.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="83.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="98.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="164.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="103.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="87.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="1" width="12.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="13.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="8" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="6" s="8" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" s="7" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>57</v>
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>58</v>
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>61</v>
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2082,34 +2278,17 @@
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" display="https://developers.google.com/"/>
+    <hyperlink ref="F6" r:id="rId2" display="https://developers.google.com/[..]/good-titles-snippets/"/>
+    <hyperlink ref="F8" r:id="rId3" location="descriptionmeta" display="developers.google.com SEO starter guide"/>
+    <hyperlink ref="F9" r:id="rId4" display="https://developers.google.com/search/docs/advanced/guidelines/irrelevant-keywords"/>
+    <hyperlink ref="F10" r:id="rId5" display="https://developers.google.com/search/docs/advanced/guidelines/hidden-text-links"/>
+    <hyperlink ref="F12" r:id="rId6" display="https://developers.google.com"/>
+    <hyperlink ref="F24" r:id="rId7" display="developer.google.com/search/docs/advanced/javascript/lazy-loading"/>
+    <hyperlink ref="F36" r:id="rId8" display="https://www.whoisaccessible.com/guidelines/wcag"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/report/audit-SEO deuxieme version.xlsx
+++ b/report/audit-SEO deuxieme version.xlsx
@@ -154,7 +154,7 @@
     <t xml:space="preserve">obsolete. Ici combiné à du word stuffing s’apparente a du black hat SEO </t>
   </si>
   <si>
-    <t xml:space="preserve">Suprrimer la balise keyword</t>
+    <t xml:space="preserve">Supprimer la balise keyword</t>
   </si>
   <si>
     <t xml:space="preserve">https://developers.google.com/search/docs/advanced/guidelines/irrelevant-keywords</t>
@@ -792,8 +792,8 @@
   </sheetPr>
   <dimension ref="A1:Z948"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/report/audit-SEO deuxieme version.xlsx
+++ b/report/audit-SEO deuxieme version.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="135">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -376,23 +376,10 @@
     <t xml:space="preserve">Un lien est de bonne qualité s’il: 1- Provient d’un site connu ou de qualité   2- Se trouve dans un contenu cohérent par rapport à votre domaine métier     3 – Amène un vrai trafic . </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Etablir si possibles des partenariats. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> Entre outre, trustpilot, yelp et autres réseaux sociaux peuvent amener du trafic de qualité vers votre site. Il faut cependant repondre aux review positive gérez les negatives et "soigner" son image sur les réseaux sociaux ou sites de reviews.</t>
-    </r>
+    <t xml:space="preserve">Etablir si possibles des partenariats.  Entre outre, trustpilot, yelp et autres réseaux sociaux peuvent amener du trafic de qualité vers votre site. Il faut cependant repondre aux review positive gérez les negatives et "soigner" son image sur les réseaux sociaux ou sites de reviews.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance</t>
   </si>
   <si>
     <t xml:space="preserve">supprimer les classes CSS inutilisées / Minifier les fichier css / Javascript</t>
@@ -414,6 +401,9 @@
   </si>
   <si>
     <t xml:space="preserve">On utilise async ou defer pour éviter que le chargement de scripts ne bloque le chargement du reste du DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité </t>
   </si>
   <si>
     <t xml:space="preserve">ensure fonts remain visible during webfont load</t>
@@ -487,9 +477,6 @@
     <t xml:space="preserve">https://www.whoisaccessible.com/guidelines/wcag</t>
   </si>
   <si>
-    <t xml:space="preserve">Accessibilité </t>
-  </si>
-  <si>
     <t xml:space="preserve">pas de controles aria</t>
   </si>
   <si>
@@ -509,7 +496,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -584,11 +571,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -644,7 +626,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -699,10 +681,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -792,8 +770,8 @@
   </sheetPr>
   <dimension ref="A1:Z948"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1209,7 +1187,7 @@
         <v>91</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1229,9 +1207,12 @@
       <c r="E26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>97</v>
       </c>
@@ -1243,13 +1224,16 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1257,77 +1241,95 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B31" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1335,36 +1337,36 @@
         <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/report/audit-SEO deuxieme version.xlsx
+++ b/report/audit-SEO deuxieme version.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Problème identifié</t>
   </si>
   <si>
-    <t xml:space="preserve">Explication du problème</t>
+    <t xml:space="preserve">Nos doivent ne doivent contenir qu’un seul titre h1 qui doit contenir notre mot-clé principal</t>
   </si>
   <si>
     <t xml:space="preserve">Bonne pratique à adopter</t>
@@ -277,6 +277,9 @@
     <t xml:space="preserve">Le contenu est structuré avec des titres de differents niveaux</t>
   </si>
   <si>
+    <t xml:space="preserve">Nos doivent ne doivent contenir qu’un seul titre h1 qui doit contenir notre mot-clé principal. Notre contenu doit d’être segmenté en plusieurs parties par des h2 et qu’ils contiennent soit le mot-clé, soit un synonyme proche</t>
+  </si>
+  <si>
     <t xml:space="preserve">page2 html lien layout</t>
   </si>
   <si>
@@ -308,18 +311,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ajouter les informations pertinentes telle que le nom, image, addresse physique et horaires d’ouverture.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titres h1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos doivent ne doivent contenir qu’un seul titre h1 qui doit contenir notre mot-clé principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titre h2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notre contenu doit d’être segmenté en plusieurs parties par des h2 et qu’ils contiennent soit le mot-clé, soit un synonyme proche</t>
   </si>
   <si>
     <t xml:space="preserve">SEO et Optimisation</t>
@@ -496,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -530,6 +521,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -626,7 +622,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -651,8 +647,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -663,12 +659,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -676,11 +672,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -768,10 +772,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z948"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -793,7 +797,7 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -805,35 +809,35 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -848,67 +852,67 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="9" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="9" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="9" customFormat="true" ht="48.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -920,13 +924,13 @@
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -940,10 +944,10 @@
       <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -960,10 +964,10 @@
       <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -980,7 +984,7 @@
       <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -994,10 +998,10 @@
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1005,13 +1009,13 @@
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -1026,7 +1030,7 @@
       <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1043,7 +1047,7 @@
       <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1068,7 +1072,7 @@
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1081,12 +1085,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1094,16 +1101,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1111,13 +1118,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1125,250 +1132,230 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C31" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2278,8 +2265,8 @@
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" display="https://developers.google.com/"/>
@@ -2288,8 +2275,8 @@
     <hyperlink ref="F9" r:id="rId4" display="https://developers.google.com/search/docs/advanced/guidelines/irrelevant-keywords"/>
     <hyperlink ref="F10" r:id="rId5" display="https://developers.google.com/search/docs/advanced/guidelines/hidden-text-links"/>
     <hyperlink ref="F12" r:id="rId6" display="https://developers.google.com"/>
-    <hyperlink ref="F24" r:id="rId7" display="developer.google.com/search/docs/advanced/javascript/lazy-loading"/>
-    <hyperlink ref="F36" r:id="rId8" display="https://www.whoisaccessible.com/guidelines/wcag"/>
+    <hyperlink ref="F22" r:id="rId7" display="developer.google.com/search/docs/advanced/javascript/lazy-loading"/>
+    <hyperlink ref="F34" r:id="rId8" display="https://www.whoisaccessible.com/guidelines/wcag"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
